--- a/Mifos Automation Excels/Client/2462-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2462-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,12 +625,12 @@
         <v>9090.91</v>
       </c>
       <c r="F2" s="6">
-        <v>909.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>618.17999999999995</v>
+        <v>700</v>
       </c>
       <c r="B3" s="6">
         <v>200</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>418.18</v>
+        <v>500</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,7 +797,6 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -840,9 +839,6 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
@@ -852,10 +848,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -866,7 +862,7 @@
         <v>8181.82</v>
       </c>
       <c r="H4" s="6">
-        <v>0</v>
+        <v>90.91</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -874,8 +870,8 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
-        <v>909.09</v>
+      <c r="K4" s="8">
+        <v>1000</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -886,11 +882,8 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>909.09</v>
+      <c r="P4" s="8">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -898,10 +891,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -912,7 +905,7 @@
         <v>7272.73</v>
       </c>
       <c r="H5" s="6">
-        <v>90.91</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -920,8 +913,8 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
-        <v>1000</v>
+      <c r="K5" s="6">
+        <v>990.91</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -932,11 +925,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1000</v>
+      <c r="P5" s="6">
+        <v>990.91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -944,10 +934,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -978,9 +968,6 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
       <c r="P6" s="6">
         <v>981.82</v>
       </c>
@@ -990,10 +977,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1024,9 +1011,6 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
       <c r="P7" s="6">
         <v>972.73</v>
       </c>
@@ -1036,10 +1020,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1070,9 +1054,6 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
       <c r="P8" s="6">
         <v>963.64</v>
       </c>
@@ -1085,7 +1066,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1116,9 +1097,6 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
       <c r="P9" s="6">
         <v>954.54</v>
       </c>
@@ -1128,10 +1106,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1162,9 +1140,6 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
       <c r="P10" s="6">
         <v>945.45</v>
       </c>
@@ -1174,10 +1149,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1208,9 +1183,6 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
       <c r="P11" s="6">
         <v>936.36</v>
       </c>
@@ -1220,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1254,9 +1226,6 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
       <c r="P12" s="6">
         <v>927.27</v>
       </c>
@@ -1266,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1298,9 +1267,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
@@ -1317,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1336,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43</v>
+        <v>6372</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1404,7 +1370,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>41</v>
+        <v>6370</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/2462-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2462-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-DELETE-VAR-INST-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,6 +251,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -293,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,9 +334,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +386,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,10 +737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,12 +758,13 @@
     <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,17 +804,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -797,8 +841,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -836,14 +881,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -879,14 +925,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -922,14 +969,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>990.91</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -965,14 +1013,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>981.82</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1008,14 +1057,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>972.73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1051,14 +1101,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>963.64</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1094,14 +1145,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>954.54</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1137,14 +1189,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>945.45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1180,14 +1233,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>936.36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1223,14 +1277,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>927.27</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1266,10 +1321,11 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>918.19</v>
       </c>
     </row>
@@ -1283,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
